--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruv\STANFORD\CLASSES\CS 229\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/afs/ir.stanford.edu/users/j/u/justinx/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Wtd Log. Reg. - No Var Mod" sheetId="1" r:id="rId1"/>
     <sheet name="Wtd Log. Reg. - Post PCA" sheetId="2" r:id="rId2"/>
     <sheet name="NN - Post PCA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>5 MIN</t>
   </si>
@@ -64,12 +69,51 @@
   <si>
     <t>Gain Increase</t>
   </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>LinReg</t>
+  </si>
+  <si>
+    <t>LinReg PCA</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +134,29 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,10 +182,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -136,8 +205,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,6 +223,6528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10 Minute Gains </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$15:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.646E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.646E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.646E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$15:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$15:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$15:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-439759712"/>
+        <c:axId val="-439864128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-439759712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-439864128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-439864128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-439759712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5 Minute Weighted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$I$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$47:$H$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$I$47:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$47:$H$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$47:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$47:$H$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$47:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-377421392"/>
+        <c:axId val="-376532720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-377421392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-376532720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-376532720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-377421392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10 Minute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Weighted Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$I$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$52:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$I$52:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$52:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$52:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$52:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$52:$K$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-444001264"/>
+        <c:axId val="-456699616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-444001264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-456699616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-456699616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-444001264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 Minute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Weighted Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$I$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$57:$H$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$I$57:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$57:$H$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$57:$J$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$H$57:$H$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$57:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-458872656"/>
+        <c:axId val="-375963904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-458872656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-375963904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-375963904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-458872656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5 Minute Gains</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$10:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$10:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.868E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.868E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.868E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$10:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$L$10:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$10:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$M$10:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$10:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$N$10:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-440110816"/>
+        <c:axId val="-442323008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-440110816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-442323008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-442323008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-440110816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 Minute Gains</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$20:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$K$20:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$20:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$L$20:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinReg PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$20:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$M$20:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$J$20:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wtd Log. Reg. - No Var Mod'!$N$20:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-375066496"/>
+        <c:axId val="-376774080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-375066496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-376774080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-376774080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-375066496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,33 +7010,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
@@ -464,7 +7058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -488,7 +7082,7 @@
         <v>1.1540000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,7 +7109,7 @@
         <v>1.2149999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -539,7 +7133,7 @@
         <v>1.1890000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -549,7 +7143,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -573,7 +7167,7 @@
         <v>1.0320000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,7 +7194,7 @@
         <v>1.0829999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -624,7 +7218,7 @@
         <v>1.4780000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -633,8 +7227,23 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -657,8 +7266,23 @@
         <f t="shared" si="0"/>
         <v>8.5000000000000006E-5</v>
       </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.868E-5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.4300000000000001E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.84E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -684,8 +7308,23 @@
         <f t="shared" si="0"/>
         <v>1.01E-4</v>
       </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.868E-5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.7100000000000001E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -708,18 +7347,93 @@
         <f t="shared" si="0"/>
         <v>9.3999999999999994E-5</v>
       </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.868E-5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.5100000000000001E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.56E-4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.7100000000000001E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <f>0.6*K10+0.2*K11+0.2*K12</f>
+        <v>2.868E-5</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5.6459999999999998E-5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.63E-4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.3699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.6459999999999998E-5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.95E-4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.22E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -727,9 +7441,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5.6459999999999998E-5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.2599999999999999E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -737,78 +7466,149 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
+      <c r="K18" s="1">
+        <f>0.6*K15+0.2*K16+0.2*K17</f>
+        <v>5.6459999999999998E-5</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.1200000000000001E-4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.0400000000000002E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.1200000000000001E-4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2.41E-4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.1200000000000001E-4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.13E-4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3.0400000000000002E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
+        <f>0.6*K20+0.2*K21+0.2*K22</f>
+        <v>1.1200000000000001E-4</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -816,21 +7616,188 @@
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="J47">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K47">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="J48">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K48">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J49">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K49">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K52">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J53">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="K53">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J54">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="K54">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J57">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="K57">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J58">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="K58">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="J59">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K59">
+        <v>0.56899999999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -839,22 +7806,22 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
@@ -877,7 +7844,7 @@
       </c>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -902,7 +7869,7 @@
       </c>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,7 +7897,7 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -955,7 +7922,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -966,7 +7933,7 @@
       <c r="H5" s="1"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -991,7 +7958,7 @@
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +7986,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +8011,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1055,7 +8022,7 @@
       <c r="H9" s="1"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +8047,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +8075,7 @@
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1133,16 +8100,16 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J16" s="10"/>
     </row>
   </sheetData>
@@ -1154,21 +8121,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
@@ -1190,7 +8159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +8180,7 @@
         <v>1.484E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +8204,7 @@
         <v>1.537E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +8222,7 @@
         <v>1.518E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1263,7 +8232,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +8253,7 @@
         <v>1.741E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +8277,7 @@
         <v>1.7310000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +8298,7 @@
         <v>1.8129999999999999E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1339,7 +8308,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +8329,7 @@
         <v>1.94E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +8353,7 @@
         <v>1.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
